--- a/_raw/mysql_validationcheck.xlsx
+++ b/_raw/mysql_validationcheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infoblox-my.sharepoint.com/personal/kkrishna_infoblox_com/Documents/hackthon-2024/Project/code-hackathon-2024/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{726451EE-D1E4-3C48-A8A9-82A8ADD5764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C29C7CB3-2F97-0047-920E-B40B0F40EBB8}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{726451EE-D1E4-3C48-A8A9-82A8ADD5764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA50216A-3F8E-FC4C-845E-93192BBDDDCC}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="3540" windowWidth="32520" windowHeight="17440" xr2:uid="{D5DEAD4E-A5DD-6F4D-A59C-43A0FD45CE6D}"/>
+    <workbookView xWindow="12320" yWindow="3540" windowWidth="28480" windowHeight="14060" activeTab="2" xr2:uid="{D5DEAD4E-A5DD-6F4D-A59C-43A0FD45CE6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>table_name</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>deptno</t>
+  </si>
+  <si>
+    <t>empno,ename,sal,job,doj,deptno,manager_id,bonus</t>
   </si>
 </sst>
 </file>
@@ -154,6 +157,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDAE400-A446-4F41-94BD-522CD40B1D74}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+    <sheetView zoomScale="165" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -572,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5EF77A-B75A-7444-8AF7-D0F01A7683FF}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,9 +613,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
